--- a/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
+++ b/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BD7C3-869C-4114-929C-A5DC03579C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57100886-A619-4863-AD36-E1D3A90D59E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CloseAccountingPeriod" sheetId="30" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="282">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -18678,7 +18678,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18925,9 +18925,7 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -18963,9 +18961,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
@@ -18997,9 +18993,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
@@ -19035,9 +19029,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
@@ -19069,9 +19061,7 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
@@ -19107,9 +19097,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
@@ -19141,9 +19129,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
@@ -19177,9 +19163,7 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
@@ -19211,9 +19195,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>68</v>
       </c>
@@ -19247,7 +19229,9 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>68</v>
       </c>

--- a/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
+++ b/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57100886-A619-4863-AD36-E1D3A90D59E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA10F19-5FB1-47D0-BB18-68EA99AB7C12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="283">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Wait</t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t>Explicit wait for SelectDataAccessSet</t>
   </si>
   <si>
@@ -871,6 +868,12 @@
   </si>
   <si>
     <t>Exists||Step 34-Step 37||Step 38-Step 42</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDelay</t>
   </si>
 </sst>
 </file>
@@ -18678,7 +18681,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C16:C17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18741,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
@@ -18771,7 +18774,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="9"/>
@@ -18812,7 +18815,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N3" s="11"/>
     </row>
@@ -18848,7 +18851,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N4" s="11"/>
     </row>
@@ -18884,7 +18887,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -18915,12 +18918,12 @@
         <v>126</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N6" s="11"/>
     </row>
@@ -18951,12 +18954,12 @@
         <v>126</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -18988,7 +18991,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -18998,13 +19001,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>24</v>
@@ -19013,18 +19016,18 @@
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -19034,13 +19037,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>24</v>
@@ -19049,14 +19052,14 @@
         <v>21</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="13"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -19081,18 +19084,18 @@
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N11" s="9"/>
     </row>
@@ -19102,13 +19105,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>24</v>
@@ -19117,14 +19120,14 @@
         <v>21</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="13"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -19143,22 +19146,22 @@
         <v>135</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N13" s="9"/>
     </row>
@@ -19190,7 +19193,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N14" s="9"/>
     </row>
@@ -19209,28 +19212,28 @@
         <v>135</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="13">
       <c r="A16" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>68</v>
@@ -19251,24 +19254,24 @@
         <v>38</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="13">
       <c r="A17" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>68</v>
@@ -19277,34 +19280,34 @@
         <v>103</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>133</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="13">
       <c r="A18" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>68</v>
@@ -19313,7 +19316,7 @@
         <v>104</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>37</v>
@@ -19331,30 +19334,30 @@
         <v>126</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="13">
       <c r="A19" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>24</v>
@@ -19370,19 +19373,19 @@
       <c r="K19" s="10"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="13">
       <c r="A20" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>135</v>
@@ -19391,28 +19394,28 @@
         <v>135</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="13">
       <c r="A21" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>68</v>
@@ -19421,16 +19424,16 @@
         <v>134</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>133</v>
@@ -19444,19 +19447,19 @@
       <c r="K21" s="10"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="13">
       <c r="A22" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>135</v>
@@ -19465,34 +19468,34 @@
         <v>135</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="13">
       <c r="A23" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>135</v>
@@ -19501,22 +19504,22 @@
         <v>135</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N23" s="9"/>
     </row>
@@ -19526,13 +19529,13 @@
         <v>68</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>24</v>
@@ -19541,14 +19544,14 @@
         <v>21</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="15"/>
       <c r="K24" s="10"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N24" s="9"/>
     </row>
@@ -19558,7 +19561,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>135</v>
@@ -19567,34 +19570,34 @@
         <v>135</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="13">
       <c r="A26" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>70</v>
@@ -19615,24 +19618,24 @@
         <v>126</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="13">
       <c r="A27" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>72</v>
@@ -19654,19 +19657,19 @@
       <c r="K27" s="10"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="13">
       <c r="A28" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>75</v>
@@ -19687,24 +19690,24 @@
         <v>126</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="13">
       <c r="A29" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>75</v>
@@ -19725,24 +19728,24 @@
         <v>126</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="13">
       <c r="A30" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>80</v>
@@ -19764,19 +19767,19 @@
       <c r="K30" s="10"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="13">
       <c r="A31" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>93</v>
@@ -19791,30 +19794,30 @@
         <v>38</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" ht="13">
       <c r="A32" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>99</v>
@@ -19836,19 +19839,19 @@
       <c r="K32" s="10"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" ht="13">
       <c r="A33" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>93</v>
@@ -19857,76 +19860,76 @@
         <v>37</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" ht="13">
       <c r="A34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="13">
       <c r="A35" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>24</v>
@@ -19935,26 +19938,26 @@
         <v>21</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="15"/>
       <c r="K35" s="10"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="13">
       <c r="A36" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>135</v>
@@ -19963,40 +19966,40 @@
         <v>135</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="13">
       <c r="A37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>24</v>
@@ -20005,7 +20008,7 @@
         <v>125</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>126</v>
@@ -20016,25 +20019,25 @@
       <c r="K37" s="10"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" ht="13">
       <c r="A38" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>24</v>
@@ -20043,28 +20046,28 @@
         <v>67</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="13">
       <c r="A39" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>135</v>
@@ -20073,40 +20076,40 @@
         <v>135</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:14" ht="13">
       <c r="A40" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>24</v>
@@ -20115,29 +20118,29 @@
         <v>21</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="15"/>
       <c r="K40" s="10"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="13">
       <c r="A41" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>37</v>
@@ -20149,36 +20152,36 @@
         <v>38</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" ht="13">
       <c r="A42" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>24</v>
@@ -20187,7 +20190,7 @@
         <v>125</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>126</v>
@@ -20198,25 +20201,25 @@
       <c r="K42" s="10"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" ht="13">
       <c r="A43" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>24</v>
@@ -20225,28 +20228,28 @@
         <v>67</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:14" ht="13">
       <c r="A44" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>135</v>
@@ -20255,40 +20258,40 @@
         <v>135</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" ht="13">
       <c r="A45" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>24</v>
@@ -20297,26 +20300,26 @@
         <v>21</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="15"/>
       <c r="K45" s="10"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="13">
       <c r="A46" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>135</v>
@@ -20325,34 +20328,34 @@
         <v>135</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="13">
       <c r="A47" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>135</v>
@@ -20361,40 +20364,40 @@
         <v>135</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A48" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>24</v>
@@ -20409,30 +20412,30 @@
         <v>126</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N48" s="18"/>
     </row>
     <row r="49" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A49" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>24</v>
@@ -20448,23 +20451,23 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>24</v>
@@ -20473,34 +20476,34 @@
         <v>38</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>24</v>
@@ -20509,26 +20512,26 @@
         <v>21</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N51" s="18"/>
     </row>
     <row r="52" spans="1:14" ht="13">
       <c r="A52" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>135</v>
@@ -20537,34 +20540,34 @@
         <v>135</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9" t="s">
         <v>126</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:14" ht="13">
       <c r="A53" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>115</v>
@@ -20585,24 +20588,24 @@
         <v>126</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="9"/>
       <c r="M53" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:14" ht="13">
       <c r="A54" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>114</v>
@@ -20624,20 +20627,20 @@
       <c r="K54" s="10"/>
       <c r="L54" s="9"/>
       <c r="M54" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>37</v>
@@ -20655,28 +20658,28 @@
         <v>126</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="9"/>
       <c r="M55" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N55" s="18"/>
     </row>
     <row r="56" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>24</v>
@@ -20696,23 +20699,23 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>24</v>
@@ -20727,28 +20730,28 @@
         <v>126</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N57" s="18"/>
     </row>
     <row r="58" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D58" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>24</v>
@@ -20768,23 +20771,23 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>24</v>
@@ -20799,28 +20802,28 @@
         <v>126</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N59" s="18"/>
     </row>
     <row r="60" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>24</v>
@@ -20835,28 +20838,28 @@
         <v>126</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N60" s="18"/>
     </row>
     <row r="61" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>24</v>
@@ -20883,10 +20886,10 @@
     <row r="62" spans="1:14" s="5" customFormat="1" ht="13">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>76</v>
@@ -20915,7 +20918,6 @@
       <c r="N62" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M62" xr:uid="{2F329302-54BB-4725-9F21-C9BB5CBC0C3F}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="J51">
     <cfRule type="duplicateValues" dxfId="114" priority="207"/>
@@ -21243,7 +21245,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>24</v>
@@ -21355,7 +21357,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>24</v>
@@ -21481,7 +21483,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>24</v>
@@ -21607,7 +21609,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>24</v>
@@ -21615,13 +21617,13 @@
     </row>
     <row r="34" spans="1:4" ht="13">
       <c r="A34" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>24</v>
@@ -21629,13 +21631,13 @@
     </row>
     <row r="35" spans="1:4" ht="13">
       <c r="A35" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>24</v>
@@ -21643,13 +21645,13 @@
     </row>
     <row r="36" spans="1:4" ht="13">
       <c r="A36" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>24</v>
@@ -21657,13 +21659,13 @@
     </row>
     <row r="37" spans="1:4" ht="13">
       <c r="A37" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
@@ -21677,7 +21679,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>24</v>
@@ -21685,13 +21687,13 @@
     </row>
     <row r="39" spans="1:4" ht="13">
       <c r="A39" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>24</v>
@@ -21699,13 +21701,13 @@
     </row>
     <row r="40" spans="1:4" ht="13">
       <c r="A40" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>24</v>
@@ -21713,13 +21715,13 @@
     </row>
     <row r="41" spans="1:4" ht="13">
       <c r="A41" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>24</v>
@@ -21727,13 +21729,13 @@
     </row>
     <row r="42" spans="1:4" ht="13">
       <c r="A42" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>24</v>
@@ -21741,13 +21743,13 @@
     </row>
     <row r="43" spans="1:4" ht="13">
       <c r="A43" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>24</v>
@@ -21755,13 +21757,13 @@
     </row>
     <row r="44" spans="1:4" ht="13">
       <c r="A44" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>24</v>
@@ -21769,13 +21771,13 @@
     </row>
     <row r="45" spans="1:4" ht="13">
       <c r="A45" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>24</v>
@@ -21783,13 +21785,13 @@
     </row>
     <row r="46" spans="1:4" ht="13">
       <c r="A46" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>24</v>
@@ -21797,13 +21799,13 @@
     </row>
     <row r="47" spans="1:4" ht="13">
       <c r="A47" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>24</v>
@@ -21811,13 +21813,13 @@
     </row>
     <row r="48" spans="1:4" ht="13">
       <c r="A48" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>24</v>
@@ -21825,13 +21827,13 @@
     </row>
     <row r="49" spans="1:4" ht="13">
       <c r="A49" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>24</v>
@@ -21839,7 +21841,7 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>36</v>
@@ -21853,13 +21855,13 @@
     </row>
     <row r="51" spans="1:4" ht="13">
       <c r="A51" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>24</v>
@@ -21867,25 +21869,25 @@
     </row>
     <row r="52" spans="1:4" ht="13">
       <c r="A52" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" s="6" customFormat="1" ht="13">
       <c r="A53" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>24</v>

--- a/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
+++ b/GL20_Script_ClosenewGLAccountingPeriod_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA10F19-5FB1-47D0-BB18-68EA99AB7C12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A024704C-7773-4596-B28F-6359B44FB5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CloseAccountingPeriod" sheetId="30" r:id="rId1"/>
@@ -18,124 +18,437 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CloseAccountingPeriod!$A$1:$M$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CloseAccountingPeriod!$A$1:$N$73</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="308">
+  <si>
+    <t>OBJECT VARIABLE NAME</t>
+  </si>
+  <si>
+    <t>OBJECT_PROPERTY</t>
+  </si>
+  <si>
+    <t>PROPERTY_VALUE</t>
+  </si>
+  <si>
+    <t>OBJECTTYPE</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>//*[@id="btnActive"]</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>pt1:_UIShome::icon</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>//a[@title='Navigator']</t>
+  </si>
+  <si>
+    <t>PeriodClose</t>
+  </si>
+  <si>
+    <t>//*[@id="itemNode_general_accounting_period_close"]</t>
+  </si>
+  <si>
+    <t>ChangeDataAccessSet</t>
+  </si>
+  <si>
+    <t>//select[contains(@id,'soc1::content')]</t>
+  </si>
+  <si>
+    <t>ChangeDataAccessSetok</t>
+  </si>
+  <si>
+    <t>//button[@class='xvd p_AFTextOnly'][contains(@id,':d1::ok')]</t>
+  </si>
+  <si>
+    <t>PeriodCloseDiv</t>
+  </si>
+  <si>
+    <t>//div[@class='xdy']/table/tbody/tr/td[2]/div[@title='Period Close']</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>//div[@title='Tasks']</t>
+  </si>
+  <si>
+    <t>TasksPanelDiv</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'TLpanelform')][@class='x19']</t>
+  </si>
+  <si>
+    <t>MngAcctPeriodsLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Accounting Periods']</t>
+  </si>
+  <si>
+    <t>MngAcctPeriodsDiv</t>
+  </si>
+  <si>
+    <t>//td[2]/div[@title='Manage Accounting Periods']</t>
+  </si>
+  <si>
+    <t>LedgerLink</t>
+  </si>
+  <si>
+    <t>//table[@summary='Accounting Period Status Summary']/tbody/tr[2]/td[2]/div/table/tbody/tr/td/div/span[2]/span</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>//span[text()='AXNJul-17']</t>
+  </si>
+  <si>
+    <t>OpenPeriodBtn</t>
+  </si>
+  <si>
+    <t>//span[text()='Open Period']</t>
+  </si>
+  <si>
+    <t>OpenPeriodConf</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'ap1:d13')][@class='xk6'</t>
+  </si>
+  <si>
+    <t>OpenPeriodOk</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':ap1:d13::ok')]</t>
+  </si>
+  <si>
+    <t>EditActPriodStatusDiv</t>
+  </si>
+  <si>
+    <t>//div[@id='_FOpt1:_FOr1:0:_FOSritemNode_general_accounting_period_close']</t>
+  </si>
+  <si>
+    <t>EditActPriodStatusDone</t>
+  </si>
+  <si>
+    <t>//td[@class='x1go']/button</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,':ap1:AT1:_ATp:ctb7')]/a</t>
+  </si>
+  <si>
+    <t>CheckPeriodOpen</t>
+  </si>
+  <si>
+    <t>//tr[contains(@id,':ap1:plam2')]/td[@class='xt3 xt2']</t>
+  </si>
+  <si>
+    <t>UsernameClick</t>
+  </si>
+  <si>
+    <t>//a[contains(@id,'pt1:_UIScmil1u')]</t>
+  </si>
+  <si>
+    <t>SettingsAndActions</t>
+  </si>
+  <si>
+    <t>//div[@class='xk9']</t>
+  </si>
+  <si>
+    <t>SignOut</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Sign Out')]</t>
+  </si>
+  <si>
+    <t>LogoutConsentDiv</t>
+  </si>
+  <si>
+    <t>//div[@class='contentContainer']</t>
+  </si>
+  <si>
+    <t>ConfirmBtn</t>
+  </si>
+  <si>
+    <t>//button[@name='Confirm']</t>
+  </si>
+  <si>
+    <t>MenuNavigator</t>
+  </si>
+  <si>
+    <t>//div[@id='pt1:nv_pgl3']/div</t>
+  </si>
+  <si>
+    <t>ClosePeriodBtn</t>
+  </si>
+  <si>
+    <t>//span[text()='Close Period']</t>
+  </si>
+  <si>
+    <t>Period1</t>
+  </si>
+  <si>
+    <t>//span[text()='AXNApr-17']</t>
+  </si>
+  <si>
+    <t>PopUpYes</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'ap1:d1341::yes')]</t>
+  </si>
+  <si>
+    <t>SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>DataAccessOk</t>
+  </si>
+  <si>
+    <t>//button[text()='OK']</t>
+  </si>
+  <si>
+    <t>AccountingPrdFilter</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'idPeriodName::content')]</t>
+  </si>
+  <si>
+    <t>SearchPeriod</t>
+  </si>
+  <si>
+    <t>SearchedPeriod</t>
+  </si>
+  <si>
+    <t>//table[@summary='Accounting Period Status']/tbody/tr/td[2]/div/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>//a/span[text()='Close Period']</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>//img[@title='Query By Example']</t>
+  </si>
+  <si>
+    <t>ReceivePopup</t>
+  </si>
+  <si>
+    <t>//td[contains(@id,'ap1:d13::_fcc')]/button[text()='OK']</t>
+  </si>
+  <si>
+    <t>EditAcctPage</t>
+  </si>
+  <si>
+    <t>//div[contains(@title,'Edit Accounting Period Statuses:')]/h1</t>
+  </si>
+  <si>
+    <t>SignInLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Sign In ']</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>//*[@id="userid"]</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>//input[@type='submit']</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>//*[@id="password"]</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>ChargeAccount</t>
+  </si>
+  <si>
+    <t>//span[label[text()='Charge Account']]/input</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>//a/span[text()='Sub']</t>
+  </si>
+  <si>
+    <t>SelectNo</t>
+  </si>
+  <si>
+    <t>//input[@id='idBtn_Back']</t>
+  </si>
+  <si>
+    <t>ManageActPrdPage</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>TESTCASE NAME</t>
+  </si>
+  <si>
+    <t>PAGE NAME</t>
+  </si>
+  <si>
+    <t>STEP NO</t>
+  </si>
+  <si>
+    <t>TESTSTEP NAME</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+  </si>
+  <si>
+    <t>SELECTOBJECTTYPE</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>OBJECTNAME</t>
+  </si>
+  <si>
+    <t>INPUT EXCEL</t>
+  </si>
+  <si>
+    <t>INPUT DATA</t>
+  </si>
+  <si>
+    <t>TESTDATA EXCEL NAME</t>
+  </si>
+  <si>
+    <t>SHEET NAME</t>
+  </si>
   <si>
     <t>SCREENSHOT</t>
   </si>
   <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Launch application in given browser</t>
+  </si>
+  <si>
+    <t>Application launched</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>LaunchApplication</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Enter the username</t>
+  </si>
+  <si>
+    <t>Username entered</t>
+  </si>
+  <si>
+    <t>SetText</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Enter the password</t>
+  </si>
+  <si>
+    <t>Password Entered</t>
+  </si>
+  <si>
     <t>Home Page</t>
   </si>
   <si>
-    <t>TESTCASE NAME</t>
-  </si>
-  <si>
-    <t>PAGE NAME</t>
-  </si>
-  <si>
-    <t>TESTSTEP NAME</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>OBJECT VARIABLE NAME</t>
-  </si>
-  <si>
-    <t>INPUT DATA</t>
-  </si>
-  <si>
-    <t>EXPECTED</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Sign in to the application</t>
+  </si>
+  <si>
+    <t>Signed in to the application</t>
+  </si>
+  <si>
+    <t>ClickElement</t>
   </si>
   <si>
     <t>Step 5</t>
   </si>
   <si>
-    <t>SELECTOBJECTTYPE</t>
-  </si>
-  <si>
-    <t>OBJECTTYPE</t>
-  </si>
-  <si>
-    <t>STEP NO</t>
-  </si>
-  <si>
-    <t>TESTDATA EXCEL NAME</t>
-  </si>
-  <si>
-    <t>INPUT EXCEL</t>
-  </si>
-  <si>
-    <t>SHEET NAME</t>
-  </si>
-  <si>
-    <t>OBJECTNAME</t>
-  </si>
-  <si>
-    <t>OBJECT_PROPERTY</t>
-  </si>
-  <si>
-    <t>PROPERTY_VALUE</t>
-  </si>
-  <si>
-    <t>ClickElement</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Launch application in given browser</t>
-  </si>
-  <si>
-    <t>Application launched</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>signin</t>
-  </si>
-  <si>
-    <t>btnActive</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>pt1:_UIShome::icon</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>XPath</t>
+    <t>Explicit wait for Home</t>
   </si>
   <si>
     <t>Explicit Wait</t>
@@ -144,43 +457,13 @@
     <t>ExplicitWaitType</t>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Explicit wait for Home</t>
-  </si>
-  <si>
-    <t>//div[@title='Tasks']</t>
-  </si>
-  <si>
-    <t>TasksPanelDiv</t>
-  </si>
-  <si>
-    <t>UsernameClick</t>
-  </si>
-  <si>
-    <t>//div[@class='xk9']</t>
-  </si>
-  <si>
-    <t>SettingsAndActions</t>
-  </si>
-  <si>
-    <t>SignOut</t>
-  </si>
-  <si>
-    <t>//a[contains(text(),'Sign Out')]</t>
-  </si>
-  <si>
-    <t>//div[@class='contentContainer']</t>
-  </si>
-  <si>
-    <t>LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>ConfirmBtn</t>
-  </si>
-  <si>
-    <t>//button[@name='Confirm']</t>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Explicit wait for Navigator</t>
+  </si>
+  <si>
+    <t>Step 7</t>
   </si>
   <si>
     <t>Click on Navigator</t>
@@ -189,397 +472,485 @@
     <t>Clicked on Navigator</t>
   </si>
   <si>
-    <t>Navigator</t>
-  </si>
-  <si>
-    <t>//a[@title='Navigator']</t>
-  </si>
-  <si>
-    <t>PeriodClose</t>
-  </si>
-  <si>
-    <t>ChangeDataAccessSet</t>
-  </si>
-  <si>
-    <t>//select[contains(@id,'soc1::content')]</t>
-  </si>
-  <si>
-    <t>//button[@class='xvd p_AFTextOnly'][contains(@id,':d1::ok')]</t>
-  </si>
-  <si>
-    <t>ChangeDataAccessSetok</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>PeriodCloseDiv</t>
-  </si>
-  <si>
-    <t>//div[@class='xdy']/table/tbody/tr/td[2]/div[@title='Period Close']</t>
-  </si>
-  <si>
-    <t>Explicit wait for Navigator</t>
-  </si>
-  <si>
-    <t>MenuNavigator</t>
-  </si>
-  <si>
-    <t>//div[@id='pt1:nv_pgl3']/div</t>
+    <t>Click on GL</t>
+  </si>
+  <si>
+    <t>Clicked on GL</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Period Close Page</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Check filter clicked</t>
+  </si>
+  <si>
+    <t>check filter</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Explicit wait for SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
+  <si>
+    <t>Enter SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>SelectDataAccessSet entered</t>
+  </si>
+  <si>
+    <t>SelectItemByVisibleText</t>
+  </si>
+  <si>
+    <t>Step 17</t>
+  </si>
+  <si>
+    <t>Click on DataAccessOk</t>
+  </si>
+  <si>
+    <t>Clicked on DataAccessOk</t>
+  </si>
+  <si>
+    <t>Step 18</t>
+  </si>
+  <si>
+    <t>Step 19</t>
+  </si>
+  <si>
+    <t>Step 20</t>
+  </si>
+  <si>
+    <t>Step 21</t>
+  </si>
+  <si>
+    <t>Explicit wait for Tasks</t>
+  </si>
+  <si>
+    <t>Step 22</t>
+  </si>
+  <si>
+    <t>Click on Tasks</t>
+  </si>
+  <si>
+    <t>Clicked on Tasks</t>
+  </si>
+  <si>
+    <t>Step 23</t>
+  </si>
+  <si>
+    <t>Explicit wait for TasksPanelDiv</t>
+  </si>
+  <si>
+    <t>Step 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Manage Accounting Periods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicked on Manage Accounting Periods </t>
+  </si>
+  <si>
+    <t>Step 26</t>
+  </si>
+  <si>
+    <t>Explicit wait for LedgerLink</t>
+  </si>
+  <si>
+    <t>Step 27</t>
+  </si>
+  <si>
+    <t>Click on LedgerLink</t>
+  </si>
+  <si>
+    <t>Clicked on LedgerLink</t>
+  </si>
+  <si>
+    <t>Step 29</t>
+  </si>
+  <si>
+    <t>Step 30</t>
+  </si>
+  <si>
+    <t>Click on SearchPeriod</t>
+  </si>
+  <si>
+    <t>Clicked on SearchPeriod</t>
+  </si>
+  <si>
+    <t>Step 31</t>
+  </si>
+  <si>
+    <t>Step 32</t>
+  </si>
+  <si>
+    <t>Enter the SearchPeriod</t>
+  </si>
+  <si>
+    <t>SearchPeriod entered</t>
+  </si>
+  <si>
+    <t>Step 33</t>
+  </si>
+  <si>
+    <t>Enter</t>
   </si>
   <si>
     <t>SendKey</t>
   </si>
   <si>
-    <t>Period Close Page</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
-    <t>Explicit wait for Tasks</t>
-  </si>
-  <si>
-    <t>Step 13</t>
-  </si>
-  <si>
-    <t>Click on Tasks</t>
-  </si>
-  <si>
-    <t>Clicked on Tasks</t>
-  </si>
-  <si>
-    <t>Step 14</t>
-  </si>
-  <si>
-    <t>Explicit wait for TasksPanelDiv</t>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>Step 34</t>
+  </si>
+  <si>
+    <t>Click on Filter</t>
+  </si>
+  <si>
+    <t>Clicked on Filter</t>
+  </si>
+  <si>
+    <t>Step 35</t>
+  </si>
+  <si>
+    <t>Explicit wait for SearchPeriod</t>
+  </si>
+  <si>
+    <t>Step 36</t>
+  </si>
+  <si>
+    <t>Step 37</t>
+  </si>
+  <si>
+    <t>Step 38</t>
+  </si>
+  <si>
+    <t>Step 39</t>
+  </si>
+  <si>
+    <t>Click on SearchedPeriod</t>
+  </si>
+  <si>
+    <t>Clicked on SearchedPeriod</t>
+  </si>
+  <si>
+    <t>Step 40</t>
+  </si>
+  <si>
+    <t>Step 41</t>
+  </si>
+  <si>
+    <t>Step 42</t>
+  </si>
+  <si>
+    <t>Step 45</t>
+  </si>
+  <si>
+    <t>Explicit wait for Refresh</t>
+  </si>
+  <si>
+    <t>Step 46</t>
+  </si>
+  <si>
+    <t>Click on Refresh</t>
+  </si>
+  <si>
+    <t>Clicked on Refresh</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>//tr/td[2][text()='Data Access Set']</t>
+  </si>
+  <si>
+    <t>waitforAccessSet</t>
+  </si>
+  <si>
+    <t>Step 25</t>
+  </si>
+  <si>
+    <t>Step 28</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>IfElseLoop</t>
+  </si>
+  <si>
+    <t>Step 43</t>
+  </si>
+  <si>
+    <t>Step 44</t>
+  </si>
+  <si>
+    <t>Step 47</t>
+  </si>
+  <si>
+    <t>Explicit wait for UsernameClick</t>
+  </si>
+  <si>
+    <t>Step 48</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>Clicked on Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Step 49</t>
+  </si>
+  <si>
+    <t>Wait for SignOut</t>
+  </si>
+  <si>
+    <t>Waited for SignOut</t>
+  </si>
+  <si>
+    <t>Step 50</t>
+  </si>
+  <si>
+    <t>Click on SignOut</t>
+  </si>
+  <si>
+    <t>Clicked on SignOut</t>
+  </si>
+  <si>
+    <t>Step 51</t>
+  </si>
+  <si>
+    <t>Wait for LogoutConsentDiv</t>
+  </si>
+  <si>
+    <t>Waited for LogoutConsentDiv</t>
+  </si>
+  <si>
+    <t>Step 52</t>
+  </si>
+  <si>
+    <t>Wait for ConfirmBtn</t>
+  </si>
+  <si>
+    <t>Waited for ConfirmBtn</t>
+  </si>
+  <si>
+    <t>Step 53</t>
+  </si>
+  <si>
+    <t>Click on ConfirmBtn</t>
+  </si>
+  <si>
+    <t>Clicked on ConfirmBtn</t>
+  </si>
+  <si>
+    <t>Step 54</t>
   </si>
   <si>
     <t>Close Browser</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>CloseBrowser</t>
   </si>
   <si>
-    <t>//div[contains(@id,'TLpanelform')][@class='x19']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Manage Accounting Periods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicked on Manage Accounting Periods </t>
-  </si>
-  <si>
-    <t>MngAcctPeriodsLink</t>
-  </si>
-  <si>
-    <t>//a[text()='Manage Accounting Periods']</t>
-  </si>
-  <si>
-    <t>MngAcctPeriodsDiv</t>
-  </si>
-  <si>
-    <t>//td[2]/div[@title='Manage Accounting Periods']</t>
-  </si>
-  <si>
-    <t>LedgerLink</t>
-  </si>
-  <si>
-    <t>OpenPeriodBtn</t>
-  </si>
-  <si>
-    <t>//span[text()='Open Period']</t>
-  </si>
-  <si>
-    <t>OpenPeriodOk</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,':ap1:d13::ok')]</t>
-  </si>
-  <si>
-    <t>EditActPriodStatusDone</t>
-  </si>
-  <si>
-    <t>//td[@class='x1go']/button</t>
-  </si>
-  <si>
-    <t>Explicit wait for LedgerLink</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>Clicked on LedgerLink</t>
-  </si>
-  <si>
-    <t>Click on LedgerLink</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>//span[text()='AXNJul-17']</t>
-  </si>
-  <si>
-    <t>Step 15</t>
-  </si>
-  <si>
-    <t>Step 16</t>
-  </si>
-  <si>
-    <t>Step 17</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'ap1:d13')][@class='xk6'</t>
-  </si>
-  <si>
-    <t>OpenPeriodConf</t>
-  </si>
-  <si>
-    <t>//div[@id='_FOpt1:_FOr1:0:_FOSritemNode_general_accounting_period_close']</t>
-  </si>
-  <si>
-    <t>EditActPriodStatusDiv</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,':ap1:AT1:_ATp:ctb7')]/a</t>
-  </si>
-  <si>
-    <t>//tr[contains(@id,':ap1:plam2')]/td[@class='xt3 xt2']</t>
-  </si>
-  <si>
-    <t>CheckPeriodOpen</t>
-  </si>
-  <si>
-    <t>Clicked on Refresh</t>
-  </si>
-  <si>
-    <t>Click on Refresh</t>
-  </si>
-  <si>
-    <t>Explicit wait for Refresh</t>
-  </si>
-  <si>
-    <t>//span[text()='Close Period']</t>
-  </si>
-  <si>
-    <t>ClosePeriodBtn</t>
-  </si>
-  <si>
-    <t>Period1</t>
-  </si>
-  <si>
-    <t>//span[text()='AXNApr-17']</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,'ap1:d1341::yes')]</t>
-  </si>
-  <si>
-    <t>PopUpYes</t>
-  </si>
-  <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
-    <t>Enter the username</t>
-  </si>
-  <si>
-    <t>Username entered</t>
-  </si>
-  <si>
-    <t>SetText</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Enter the password</t>
-  </si>
-  <si>
-    <t>Password Entered</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Sign in to the application</t>
-  </si>
-  <si>
-    <t>Signed in to the application</t>
-  </si>
-  <si>
-    <t>SelectDataAccessSet</t>
-  </si>
-  <si>
-    <t>Step 20</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Explicit wait for SelectDataAccessSet</t>
-  </si>
-  <si>
-    <t>Step 33</t>
-  </si>
-  <si>
-    <t>SelectItemByVisibleText</t>
-  </si>
-  <si>
-    <t>Enter SelectDataAccessSet</t>
-  </si>
-  <si>
-    <t>SelectDataAccessSet entered</t>
-  </si>
-  <si>
-    <t>//button[text()='OK']</t>
-  </si>
-  <si>
-    <t>DataAccessOk</t>
-  </si>
-  <si>
-    <t>Clicked on DataAccessOk</t>
-  </si>
-  <si>
-    <t>Click on DataAccessOk</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'idPeriodName::content')]</t>
-  </si>
-  <si>
-    <t>AccountingPrdFilter</t>
-  </si>
-  <si>
-    <t>Edit Accounting Period Statuses Page</t>
-  </si>
-  <si>
-    <t>Check filter clicked</t>
-  </si>
-  <si>
-    <t>check filter</t>
-  </si>
-  <si>
-    <t>SearchPeriod</t>
-  </si>
-  <si>
-    <t>Step 18</t>
-  </si>
-  <si>
-    <t>Step 19</t>
-  </si>
-  <si>
-    <t>Step 21</t>
-  </si>
-  <si>
-    <t>Step 22</t>
-  </si>
-  <si>
-    <t>Step 23</t>
-  </si>
-  <si>
-    <t>Step 24</t>
-  </si>
-  <si>
-    <t>Step 26</t>
-  </si>
-  <si>
-    <t>Step 27</t>
-  </si>
-  <si>
-    <t>Step 29</t>
-  </si>
-  <si>
-    <t>Step 30</t>
-  </si>
-  <si>
-    <t>Step 31</t>
-  </si>
-  <si>
-    <t>Step 32</t>
-  </si>
-  <si>
-    <t>Step 34</t>
-  </si>
-  <si>
-    <t>Step 35</t>
-  </si>
-  <si>
-    <t>Step 36</t>
-  </si>
-  <si>
-    <t>Step 37</t>
-  </si>
-  <si>
-    <t>Step 38</t>
-  </si>
-  <si>
-    <t>Step 39</t>
-  </si>
-  <si>
-    <t>Step 40</t>
-  </si>
-  <si>
-    <t>Step 41</t>
-  </si>
-  <si>
-    <t>Step 42</t>
-  </si>
-  <si>
-    <t>Click on SearchPeriod</t>
-  </si>
-  <si>
-    <t>Clicked on SearchPeriod</t>
-  </si>
-  <si>
-    <t>Enter the SearchPeriod</t>
-  </si>
-  <si>
-    <t>SearchPeriod entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>ENTER</t>
-  </si>
-  <si>
-    <t>Click on Filter</t>
-  </si>
-  <si>
-    <t>Clicked on Filter</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Explicit wait for SearchPeriod</t>
-  </si>
-  <si>
-    <t>Click on SearchedPeriod</t>
-  </si>
-  <si>
-    <t>Clicked on SearchedPeriod</t>
-  </si>
-  <si>
-    <t>SearchedPeriod</t>
+    <t>CHANGE HISTORY</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'groupNode_general_accounting')]</t>
+  </si>
+  <si>
+    <t>Arrow Wait</t>
+  </si>
+  <si>
+    <t>Click on Arrow</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'clusters-right-nav')]</t>
+  </si>
+  <si>
+    <t>Step 55</t>
+  </si>
+  <si>
+    <t>Step 56</t>
+  </si>
+  <si>
+    <t>Step 57</t>
+  </si>
+  <si>
+    <t>Step 58</t>
+  </si>
+  <si>
+    <t>Step 59</t>
+  </si>
+  <si>
+    <t>Validation Check</t>
+  </si>
+  <si>
+    <t>Validation Checked</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ATp:table1::db')]/table/tbody/tr/td[2]/div/table/tbody/tr/td[1]/span</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>Step 61</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'FONSr2:0:_FOTsr2:0:cl1')]</t>
+  </si>
+  <si>
+    <t>VerifyDataAccessSet</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:pgl1')]/tbody/tr/td[5]</t>
+  </si>
+  <si>
+    <t>Step 62</t>
+  </si>
+  <si>
+    <t>Step 63</t>
+  </si>
+  <si>
+    <t>Exists||Step 17-Step 23||Step 24-Step 25</t>
+  </si>
+  <si>
+    <t>ChangeDataAccessSetLink</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:soc1::content')]</t>
+  </si>
+  <si>
+    <t>Exists||Step 36-Step 39||Step 40-Step 44</t>
+  </si>
+  <si>
+    <t>Step 64</t>
+  </si>
+  <si>
+    <t>Step 65</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>Done1</t>
+  </si>
+  <si>
+    <t>Done2</t>
+  </si>
+  <si>
+    <t>Click Done</t>
+  </si>
+  <si>
+    <t>Clicked Done</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:MAnt2:2:ap1:SPb')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:MAnt2:1:ap1:SPb')]</t>
+  </si>
+  <si>
+    <t>Step 66</t>
+  </si>
+  <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>Step 72</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>Close a new GL Accounting Period</t>
+  </si>
+  <si>
+    <t>VerifyClose</t>
+  </si>
+  <si>
+    <t>ValidateCloseButton</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'MAnt2:2:ap1:AT1:_ATp:ctb1')]/a[@aria-disabled='true']</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'MAnt2:2:ap1:AT1:_ATp:table1:7:i8')][@title='Closed']</t>
+  </si>
+  <si>
+    <t>Click Close Period button</t>
+  </si>
+  <si>
+    <t>Clicked Close Period button</t>
   </si>
   <si>
     <t>Wait for Close Period button</t>
@@ -588,292 +959,7 @@
     <t>Waited for Close Period button</t>
   </si>
   <si>
-    <t>Click Close Period button</t>
-  </si>
-  <si>
-    <t>Clicked Close Period button</t>
-  </si>
-  <si>
-    <t>Wait for Confirmation PopuUp</t>
-  </si>
-  <si>
-    <t>Waited for Confirmation PopuUp</t>
-  </si>
-  <si>
-    <t>ReceivePopup</t>
-  </si>
-  <si>
-    <t>Click OK in the PopUp</t>
-  </si>
-  <si>
-    <t>Clicked OK in the PopUp</t>
-  </si>
-  <si>
-    <t>//table[@summary='Accounting Period Status']/tbody/tr/td[2]/div/table/tbody/tr/td[1]</t>
-  </si>
-  <si>
-    <t>//a/span[text()='Close Period']</t>
-  </si>
-  <si>
-    <t>//img[@title='Query By Example']</t>
-  </si>
-  <si>
-    <t>//td[contains(@id,'ap1:d13::_fcc')]/button[text()='OK']</t>
-  </si>
-  <si>
-    <t>Accounts Receivable Page</t>
-  </si>
-  <si>
-    <t>Explicit wait for UsernameClick</t>
-  </si>
-  <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>Clicked on Username</t>
-  </si>
-  <si>
-    <t>Wait for SignOut</t>
-  </si>
-  <si>
-    <t>Waited for SignOut</t>
-  </si>
-  <si>
-    <t>Click on SignOut</t>
-  </si>
-  <si>
-    <t>Clicked on SignOut</t>
-  </si>
-  <si>
-    <t>Wait for LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>Waited for LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>Wait for ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Waited for ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Click on ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Clicked on ConfirmBtn</t>
-  </si>
-  <si>
-    <t>Step 43</t>
-  </si>
-  <si>
-    <t>Step 44</t>
-  </si>
-  <si>
-    <t>Step 45</t>
-  </si>
-  <si>
-    <t>Step 46</t>
-  </si>
-  <si>
-    <t>Step 47</t>
-  </si>
-  <si>
-    <t>Step 48</t>
-  </si>
-  <si>
-    <t>Step 49</t>
-  </si>
-  <si>
-    <t>Step 50</t>
-  </si>
-  <si>
-    <t>Step 51</t>
-  </si>
-  <si>
-    <t>Step 52</t>
-  </si>
-  <si>
-    <t>Step 53</t>
-  </si>
-  <si>
-    <t>Step 54</t>
-  </si>
-  <si>
-    <t>//a[contains(@id,'pt1:_UIScmil1u')]</t>
-  </si>
-  <si>
-    <t>Close a new GL Accounting Period</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>EditAcctPage</t>
-  </si>
-  <si>
-    <t>//div[contains(@title,'Edit Accounting Period Statuses:')]/h1</t>
-  </si>
-  <si>
-    <t>SignInLink</t>
-  </si>
-  <si>
-    <t>AbcamUsername</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>AbcamPassword</t>
-  </si>
-  <si>
-    <t>AbcamSignIn</t>
-  </si>
-  <si>
-    <t>SelectNo</t>
-  </si>
-  <si>
-    <t>//a[text()='Sign In ']</t>
-  </si>
-  <si>
-    <t>//input[@name='loginfmt']</t>
-  </si>
-  <si>
-    <t>//input[@type='submit']</t>
-  </si>
-  <si>
-    <t>//input[@name='passwd']</t>
-  </si>
-  <si>
-    <t>//input[@value='Sign in']</t>
-  </si>
-  <si>
-    <t>ChargeAccount</t>
-  </si>
-  <si>
-    <t>//span[label[text()='Charge Account']]/input</t>
-  </si>
-  <si>
-    <t>AbcamSubmit</t>
-  </si>
-  <si>
-    <t>//a/span[text()='Sub']</t>
-  </si>
-  <si>
-    <t>//input[@id='idBtn_Back']</t>
-  </si>
-  <si>
-    <t>ManageActPrdPage</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>Click on GL</t>
-  </si>
-  <si>
-    <t>Clicked on GL</t>
-  </si>
-  <si>
-    <t>//a[text()='General Accounting']</t>
-  </si>
-  <si>
-    <t>//table[@summary='Accounting Period Status Summary']/tbody/tr[2]/td[2]/div/table/tbody/tr/td/div/span[2]/span</t>
-  </si>
-  <si>
-    <t>//*[@id="itemNode_general_accounting_period_close"]</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>IfElseLoop</t>
-  </si>
-  <si>
-    <t>//button[text()='Yes']</t>
-  </si>
-  <si>
-    <t>ClickWYes</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>CHANGE HISTORY</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t>Arrow Wait</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>Click on Arrow</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
-    <t>waitforAccessSet</t>
-  </si>
-  <si>
-    <t>Exists||Step 17-Step 20||Step 21-Step 22</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'clusters-right-nav')]</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'pt1:_FOr1:1:_FONSr2:0:_FOTsr2:0:soc1::content')]</t>
-  </si>
-  <si>
-    <t>Step 25</t>
-  </si>
-  <si>
-    <t>Step 28</t>
-  </si>
-  <si>
-    <t>Step 55</t>
-  </si>
-  <si>
-    <t>Step 56</t>
-  </si>
-  <si>
-    <t>Step 57</t>
-  </si>
-  <si>
-    <t>Step 58</t>
-  </si>
-  <si>
-    <t>Step 59</t>
-  </si>
-  <si>
-    <t>Step 60</t>
-  </si>
-  <si>
-    <t>Step 61</t>
-  </si>
-  <si>
-    <t>Exists||Step 34-Step 37||Step 38-Step 42</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>WaitForDelay</t>
+    <t>Logout Page</t>
   </si>
 </sst>
 </file>
@@ -887,7 +973,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1067,6 +1153,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1075,20 +1162,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="6"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,24 +1421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9320,39 +9382,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17183,227 +17227,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="115">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18678,2456 +18502,2638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.90625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.90625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="34.6328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:14" ht="19" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="I6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>260</v>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9"/>
+    <row r="8" spans="1:14">
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="13">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N3" s="11"/>
+    <row r="9" spans="1:14">
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="M9" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N4" s="11"/>
+    <row r="10" spans="1:14">
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="13">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="11" spans="1:14">
+      <c r="B11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N5" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="M11" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N12" s="9"/>
+    <row r="12" spans="1:14">
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="M15" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="M16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="M20" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="I21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="M21" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="M22" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="M23" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="M25" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="M27" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="K34" s="4"/>
+      <c r="M34" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="M35" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="M38" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="M39" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="M44" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="M48" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="6" customFormat="1">
+      <c r="A49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="M50" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="6" customFormat="1">
+      <c r="A51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="6" customFormat="1">
+      <c r="A52" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="K53" s="2"/>
+      <c r="M53" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="M60" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N13" s="9"/>
+      <c r="I62" s="2"/>
+      <c r="M62" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N14" s="9"/>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="13">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="H64" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="M64" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="9" customFormat="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N15" s="9"/>
+      <c r="H67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="13">
-      <c r="A16" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="9" t="s">
+    <row r="68" spans="1:13" s="9" customFormat="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="9" customFormat="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="H69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="9" customFormat="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="9" customFormat="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="9" customFormat="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N16" s="9"/>
+      <c r="H72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="13">
-      <c r="A19" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="13">
-      <c r="A20" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="13">
-      <c r="A21" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="13">
-      <c r="A23" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A48" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A49" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J52" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="13">
-      <c r="A53" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N60" s="18"/>
-    </row>
-    <row r="61" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N62" s="18"/>
+    <row r="73" spans="1:13" s="9" customFormat="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="92" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="duplicateValues" dxfId="91" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="90" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="89" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H19">
+    <cfRule type="duplicateValues" dxfId="87" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J16">
+    <cfRule type="duplicateValues" dxfId="86" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="duplicateValues" dxfId="85" priority="114"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="duplicateValues" dxfId="114" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="82" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="113" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="80" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="79" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="78" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="duplicateValues" dxfId="77" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="76" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="75" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="72" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="71" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="69" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="duplicateValues" dxfId="68" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="67" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="66" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="65" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="duplicateValues" dxfId="63" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="duplicateValues" dxfId="62" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="60" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="58" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="57" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="duplicateValues" dxfId="55" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="duplicateValues" dxfId="54" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="53" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="52" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="49" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="47" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="43" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="112" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="111" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="110" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="109" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="108" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="107" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="106" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="182"/>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="104" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="103" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="101" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="100" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="99" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="98" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="96" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="95" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="93" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="92" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="91" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="90" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="duplicateValues" dxfId="89" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="duplicateValues" dxfId="88" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="87" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J16">
-    <cfRule type="duplicateValues" dxfId="86" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="duplicateValues" dxfId="85" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="84" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="82" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="81" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="80" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="79" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="78" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="77" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="74" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="72" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="71" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="70" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="69" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="68" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="67" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
-    <cfRule type="duplicateValues" dxfId="66" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="65" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="64" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="63" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="61" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="60" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="duplicateValues" dxfId="58" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="duplicateValues" dxfId="57" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="56" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="55" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="52" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="51" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I46:I48 I50 I52:I53 I55 I57 I59:I60 I36:I37 I41:I42 I2:I3 I9 I6:I7 I11 I15:I16 I28:I29 I13 I31:I33 I44 I18 I20 I25:I26 I22:I23 I39" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I38:I39 I43:I44 I2:I3 I9 I6:I7 I11 I15:I16 I30:I31 I25 I41 I68 I70:I71 I13 I33:I35 I46 I18 I20 I27:I28 I22:I23 I53:I54 I48:I51 I56:I57 I59:I66" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J60 H60 H62 J62 F1:G1048576 H64 J64" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -21138,859 +21144,934 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>24</v>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="13">
-      <c r="A33" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13">
-      <c r="A42" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13">
-      <c r="A43" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13">
-      <c r="A44" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13">
-      <c r="A47" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13">
-      <c r="A49" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13">
-      <c r="A50" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13">
-      <c r="A51" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13">
-      <c r="A52" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" ht="13">
-      <c r="A53" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>24</v>
-      </c>
+    <row r="64" spans="1:4">
+      <c r="C64" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D12">
     <sortCondition ref="D2:D12"/>
   </sortState>
-  <conditionalFormatting sqref="A52 A1:A23 A29:A32 A54:A1048576 A34:A35">
-    <cfRule type="duplicateValues" dxfId="38" priority="107"/>
+  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A56:A59 A61:A1048576">
+    <cfRule type="duplicateValues" dxfId="26" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A1:A23 A29:A32 A54:A1048576 A34:A35">
-    <cfRule type="duplicateValues" dxfId="37" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="111"/>
+  <conditionalFormatting sqref="A41 A1:A23 A29:A35 A50:A52 A56:A59 A61:A1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
     <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A28">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A28">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
     <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
     <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A49">
+  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A49">
+  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A24:A28">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A24:A28">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A42:A49">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A42:A49">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F50:G1048576 F41:G41 F1:G38" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G38 F41:G41 F50:G1048576 A54 A60" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://edrx-dev1.fs.us2.oraclecloud.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
